--- a/CashFlow/MSCI_cashflow.xlsx
+++ b/CashFlow/MSCI_cashflow.xlsx
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1117000.0</v>
+        <v>33000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>7482000.0</v>
+        <v>32000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>47901000.0</v>
+        <v>67783000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>77864000.0</v>
+        <v>90965000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>115622000.0</v>
+        <v>123158000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>28881000.0</v>
